--- a/Data/8. CFC Rules.xlsx
+++ b/Data/8. CFC Rules.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbjoe\Dropbox\Kugejl\8. semester\Public Economics\Public_Economics\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="CFC" sheetId="9" r:id="rId1"/>
@@ -12,9 +17,9 @@
     <sheet name="CSV" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CFC!$A$2:$M$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CFC!$A$2:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>Rasmus Bjørn</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,36 +77,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rasmus Bjørn:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www.imf.org/external/pubs/ft/wp/2007/wp0787.pdf</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="502">
   <si>
     <t>Luxembourg</t>
   </si>
@@ -253,9 +234,6 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>ABW</t>
   </si>
   <si>
@@ -1603,40 +1581,19 @@
     <t>CFC-rules</t>
   </si>
   <si>
-    <t>OECD countries who provide only confidential data</t>
-  </si>
-  <si>
-    <t>Check in datafile</t>
-  </si>
-  <si>
-    <t>Only (N)</t>
-  </si>
-  <si>
-    <t>Only ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only (N) </t>
-  </si>
-  <si>
-    <t>Only (N) and aggregates</t>
-  </si>
-  <si>
-    <t>Only (C) and aggregates</t>
-  </si>
-  <si>
-    <t>Only ../(N) and aggregates</t>
-  </si>
-  <si>
     <t>United kingdom</t>
   </si>
   <si>
     <t>Non-featured countries with CFC rules</t>
+  </si>
+  <si>
+    <t>Source: Voget (2011)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1688,7 +1645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1754,37 +1711,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1799,44 +1731,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1848,6 +1754,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1896,7 +1805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1929,9 +1838,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,6 +1890,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2143,1463 +2086,741 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="127" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="5" t="str">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="str">
         <f>IFERROR(VLOOKUP(A3,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>AUS</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1990</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="7" t="str">
+      <c r="E3" s="8"/>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H10" si="0">IF(I3="#N/A",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6" t="str">
         <f>IFERROR(VLOOKUP(A4,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>AUT</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="7" t="str">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6" t="str">
         <f>IFERROR(VLOOKUP(A5,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>BEL</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="7" t="str">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="6" t="str">
         <f>IFERROR(VLOOKUP(A6,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>CAN</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1976</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="7" t="str">
+      <c r="E6" s="10"/>
+      <c r="F6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="6" t="str">
         <f>IFERROR(VLOOKUP(A7,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>CZE</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="7" t="str">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="6" t="str">
         <f>IFERROR(VLOOKUP(A8,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>DNK</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>1995</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="7" t="str">
+      <c r="E8" s="10"/>
+      <c r="F8" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="6" t="str">
         <f>IFERROR(VLOOKUP(A9,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>EST</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="7" t="str">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="6" t="str">
         <f>IFERROR(VLOOKUP(A10,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>FRA</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>1980</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="7" t="str">
+      <c r="E10" s="10"/>
+      <c r="F10" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="6" t="str">
         <f>IFERROR(VLOOKUP(A11,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>DEU</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>1972</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="7" t="str">
+      <c r="E11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F11,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="6" t="str">
         <f>IFERROR(VLOOKUP(A12,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>GRC</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="7" t="str">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F12,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="6" t="str">
         <f>IFERROR(VLOOKUP(A13,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>HUN</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" s="7" t="str">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F13,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="6" t="str">
         <f>IFERROR(VLOOKUP(A14,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>ISL</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F14,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="6" t="str">
         <f>IFERROR(VLOOKUP(A15,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>IRL</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="7" t="str">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F15,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="6" t="str">
         <f>IFERROR(VLOOKUP(A16,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>ITA</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>2002</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="7" t="str">
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F16,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="6" t="str">
         <f>IFERROR(VLOOKUP(A17,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>JPN</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>1978</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" s="7" t="str">
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F17,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="6" t="str">
         <f>IFERROR(VLOOKUP(A18,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>KOR</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>1997</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="7" t="str">
+      <c r="E18" s="10"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F18,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="6" t="str">
         <f>IFERROR(VLOOKUP(A19,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>LVA</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>0</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" s="7" t="str">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F19,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="6" t="str">
         <f>IFERROR(VLOOKUP(A20,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>NLD</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>0</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B21" s="7" t="str">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F20,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="6" t="str">
         <f>IFERROR(VLOOKUP(A21,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>NZL</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>1988</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="7" t="str">
+      <c r="E21" s="10"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F21,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B22" s="6" t="str">
         <f>IFERROR(VLOOKUP(A22,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>NOR</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>1992</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B23" s="7" t="str">
+      <c r="E22" s="10"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F22,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="6" t="str">
         <f>IFERROR(VLOOKUP(A23,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>POL</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>0</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B24" s="7" t="str">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F23,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="6" t="str">
         <f>IFERROR(VLOOKUP(A24,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>SVK</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>0</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="7" t="str">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F24,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B25" s="6" t="str">
         <f>IFERROR(VLOOKUP(A25,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>SVN</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>0</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="7" t="str">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F25,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="6" t="str">
         <f>IFERROR(VLOOKUP(A26,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>ESP</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>1995</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B27" s="7" t="str">
+      <c r="E26" s="10"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F26,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" s="6" t="str">
         <f>IFERROR(VLOOKUP(A27,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>SWE</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>2004</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B28" s="7" t="str">
+      <c r="E27" s="10"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F27,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" s="6" t="str">
         <f>IFERROR(VLOOKUP(A28,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>GBR</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>1984</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="7" t="str">
+      <c r="E28" s="10"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F28,ISO!$A$1:$B$246,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="6" t="str">
         <f>IFERROR(VLOOKUP(A29,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v>USA</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>1962</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A31,ISO!$A$1:$B$246,2,FALSE),"")</f>
+      <c r="E29" s="10"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(F29,ISO!$A$1:$B$246,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="21"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A32,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A34,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v>FIN</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A35,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v>LUX</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B36" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A36,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v>MEX</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A37,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v>PRT</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A38,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v>CHE</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B39" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A39,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v>TUR</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A40,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="B41" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A41,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="11">
-        <f t="shared" ref="C42:C49" si="0">IF(D42="#N/A",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1999</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1995</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1995</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D45" s="12">
-        <v>2002</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D46" s="12">
-        <v>2002</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1997</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1995</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C49" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1997</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A50,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A51,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A52,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A53,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A54,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A55,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A56,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A57,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A58,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A59,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A60,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A61,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A62,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A63,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A64,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A65,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A66,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A67,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16" t="str">
-        <f>IFERROR(VLOOKUP(A68,ISO!$A$1:$B$246,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>498</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M68"/>
+  <autoFilter ref="A2:I31"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3619,23 +2840,23 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3643,23 +2864,23 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3667,7 +2888,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3675,55 +2896,55 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3731,79 +2952,79 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3819,31 +3040,31 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3072,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3859,23 +3080,23 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3883,63 +3104,63 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3947,55 +3168,55 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4003,31 +3224,31 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4035,23 +3256,23 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4067,31 +3288,31 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,159 +3320,159 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4259,15 +3480,15 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,55 +3496,55 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4331,47 +3552,47 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4379,55 +3600,55 @@
         <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -4435,23 +3656,23 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,55 +3680,55 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -4515,7 +3736,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -4523,55 +3744,55 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,31 +3800,31 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -4611,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -4619,15 +3840,15 @@
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4635,7 +3856,7 @@
         <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -4643,31 +3864,31 @@
         <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4675,15 +3896,15 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4691,23 +3912,23 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4715,23 +3936,23 @@
         <v>48</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4739,15 +3960,15 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4755,23 +3976,23 @@
         <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4779,55 +4000,55 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B149" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4835,15 +4056,15 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4851,79 +4072,79 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B160" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B164" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,31 +4152,31 @@
         <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,31 +4184,31 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B172" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4995,167 +4216,167 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B176" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B178" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B180" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B188" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B189" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B192" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B193" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -5163,55 +4384,55 @@
         <v>24</v>
       </c>
       <c r="B194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B195" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B196" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B198" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B200" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -5219,79 +4440,79 @@
         <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B204" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B205" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B206" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B207" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B209" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -5299,15 +4520,15 @@
         <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -5315,63 +4536,63 @@
         <v>42</v>
       </c>
       <c r="B213" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B214" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B216" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B217" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B218" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B219" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B220" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -5379,79 +4600,79 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B222" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B223" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B224" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B226" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B227" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B228" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B229" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B230" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -5459,31 +4680,31 @@
         <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B233" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B234" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -5491,39 +4712,39 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B236" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B237" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -5531,15 +4752,15 @@
         <v>30</v>
       </c>
       <c r="B240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -5547,39 +4768,39 @@
         <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5589,20 +4810,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5877,82 +5098,88 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>CFC!B42</f>
+        <f>CFC!G3</f>
         <v>ARG</v>
       </c>
       <c r="B29">
-        <f>CFC!C42</f>
+        <f>CFC!H3</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>CFC!B43</f>
+        <f>CFC!G4</f>
         <v>FIN</v>
       </c>
       <c r="B30">
-        <f>CFC!C43</f>
+        <f>CFC!H4</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>CFC!B44</f>
+        <f>CFC!G5</f>
         <v>IDN</v>
       </c>
       <c r="B31">
-        <f>CFC!C44</f>
+        <f>CFC!H5</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>CFC!B45</f>
+        <f>CFC!G6</f>
         <v>ISR</v>
       </c>
       <c r="B32">
-        <f>CFC!C45</f>
+        <f>CFC!H6</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>CFC!B46</f>
+        <f>CFC!G7</f>
         <v>LTU</v>
       </c>
       <c r="B33">
-        <f>CFC!C46</f>
+        <f>CFC!H7</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>CFC!B47</f>
+        <f>CFC!G8</f>
         <v>MEX</v>
       </c>
       <c r="B34">
-        <f>CFC!C47</f>
+        <f>CFC!H8</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>CFC!B48</f>
+        <f>CFC!G9</f>
         <v>PRT</v>
       </c>
       <c r="B35">
-        <f>CFC!C48</f>
+        <f>CFC!H9</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>CFC!B49</f>
+        <f>CFC!G10</f>
         <v>ZAF</v>
       </c>
       <c r="B36">
-        <f>CFC!C49</f>
+        <f>CFC!H10</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>CFC!G11</f>
+        <v/>
       </c>
     </row>
   </sheetData>
